--- a/biology/Botanique/Cupressus_guadalupensis/Cupressus_guadalupensis.xlsx
+++ b/biology/Botanique/Cupressus_guadalupensis/Cupressus_guadalupensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cyprès de Guadalupe (Cupressus guadalupensis) est un arbre de la famille des Cupressaceae, originaire de l'île de Guadalupe au Mexique.
 Cet arbre est considéré comme une espèce menacée et figure dans la liste rouge de l'UICN.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire de la Basse-Californie (Mexique) et particulièrement de l'île de Guadalupe, au large de cette presqu'île. Il en existe de petits peuplements épars du nord au sud de la Californie (États-Unis).
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cyprès de Guadalupe est un arbre toujours vert à houppier conique plus ou moins ovoïde, de taille variable, les grands arbres adultes atteignant 10 à 20 mètres de haut.
 Le feuillage forme des rameaux denses, de couleur vert foncé à gris vert. Les feuilles en forme d'écailles ont 2 à 5 mm de long et couvrent des ramules arrondies (et non aplaties).
@@ -578,7 +594,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il en existe deux variétés, traitées comme des espèces distinctes par certains botanistes :
 Cupressus guadalupensis var. guadalupensis - Cyprès de Guadelupe proprement dit.
